--- a/BackTest/2020-01-23 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-23 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5566,10 +5566,14 @@
         <v>-542693.5242807179</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5599,11 +5603,19 @@
         <v>-630936.937280718</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5644,19 @@
         <v>-519105.014280718</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,10 +5685,14 @@
         <v>-398501.341280718</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5698,15 +5722,19 @@
         <v>-393414.497280718</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.853</v>
       </c>
       <c r="J161" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>3.852</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5763,13 @@
         <v>-405976.312280718</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.854</v>
+      </c>
       <c r="J162" t="n">
-        <v>3.853</v>
+        <v>3.852</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5774,7 +5804,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.853</v>
@@ -5782,44 +5812,46 @@
       <c r="J163" t="n">
         <v>3.853</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24562.318</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-423343.360280718</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="E164" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="F164" t="n">
-        <v>24562.318</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-423343.360280718</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5848,15 +5880,19 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.851</v>
       </c>
       <c r="J165" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+        <v>3.853</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5885,7 +5921,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.851</v>
@@ -5893,11 +5929,7 @@
       <c r="J166" t="n">
         <v>3.851</v>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5926,9 +5958,11 @@
         <v>-397461.130280718</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.851</v>
+      </c>
       <c r="J167" t="n">
         <v>3.851</v>
       </c>
@@ -5965,15 +5999,19 @@
         <v>-395131.335280718</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.852</v>
       </c>
       <c r="J168" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+        <v>3.851</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6005,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6044,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -10964,14 +10990,10 @@
         <v>-1771020.433075808</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J319" t="n">
-        <v>3.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
@@ -11001,19 +11023,11 @@
         <v>-1770540.504075808</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J320" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11042,19 +11056,11 @@
         <v>-1769466.007075808</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J321" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11083,14 +11089,10 @@
         <v>-1767629.944075808</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J322" t="n">
-        <v>3.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11120,19 +11122,11 @@
         <v>-1764558.473075808</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.855</v>
-      </c>
-      <c r="J323" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11164,14 +11158,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11530,10 +11518,14 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J335" t="n">
+        <v>3.85</v>
+      </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
@@ -11563,11 +11555,19 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.85</v>
@@ -11604,7 +11604,11 @@
       <c r="J337" t="n">
         <v>3.85</v>
       </c>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11633,17 +11637,15 @@
         <v>-4764890.959675809</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J338" t="n">
         <v>3.85</v>
       </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11672,9 +11674,11 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3.851</v>
+      </c>
       <c r="J339" t="n">
         <v>3.85</v>
       </c>
@@ -11711,11 +11715,19 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11744,10 +11756,14 @@
         <v>-4760101.42667581</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
@@ -11780,8 +11796,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11813,8 +11835,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -22106,7 +22134,7 @@
         <v>5624831.48157335</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22139,7 +22167,7 @@
         <v>5519330.89057335</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22172,7 +22200,7 @@
         <v>5519330.89057335</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23888,7 +23916,7 @@
         <v>5423123.118758363</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23921,7 +23949,7 @@
         <v>5418032.743758363</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23954,7 +23982,7 @@
         <v>5259411.687258363</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23987,7 +24015,7 @@
         <v>5431156.736258362</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24020,7 +24048,7 @@
         <v>5219668.939258362</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24053,7 +24081,7 @@
         <v>5476650.168258362</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24086,7 +24114,7 @@
         <v>5496240.452558363</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24119,7 +24147,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24152,7 +24180,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24185,7 +24213,7 @@
         <v>5167151.701558363</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24218,7 +24246,7 @@
         <v>4910122.660558362</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24944,7 +24972,7 @@
         <v>4719813.082073351</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24977,7 +25005,7 @@
         <v>4460292.340073352</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25010,7 +25038,7 @@
         <v>4200663.570073352</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25043,7 +25071,7 @@
         <v>4200663.570073352</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25076,7 +25104,7 @@
         <v>4458807.899073352</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25109,7 +25137,7 @@
         <v>4716885.713073352</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25142,7 +25170,7 @@
         <v>4459216.211073352</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25175,7 +25203,7 @@
         <v>4716896.623073353</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25208,7 +25236,7 @@
         <v>4974587.939073352</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25241,7 +25269,7 @@
         <v>4975225.289073352</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25274,7 +25302,7 @@
         <v>5269318.983361631</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25307,7 +25335,7 @@
         <v>5012696.807361631</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25373,7 +25401,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25406,7 +25434,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25439,7 +25467,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25571,7 +25599,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25703,7 +25731,7 @@
         <v>5284525.402665811</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25901,7 +25929,7 @@
         <v>4777902.742892032</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25934,7 +25962,7 @@
         <v>4437530.410892032</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25967,7 +25995,7 @@
         <v>4696039.951892032</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26000,7 +26028,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26033,7 +26061,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26066,7 +26094,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26099,7 +26127,7 @@
         <v>4684356.772492032</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26132,7 +26160,7 @@
         <v>4617696.895492032</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26165,7 +26193,7 @@
         <v>4672057.500492033</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26198,7 +26226,7 @@
         <v>4715006.507944475</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26231,7 +26259,7 @@
         <v>4715006.507944475</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26297,7 +26325,7 @@
         <v>4715006.507944475</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26363,7 +26391,7 @@
         <v>4686143.063944475</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26429,7 +26457,7 @@
         <v>4681663.139944475</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26495,7 +26523,7 @@
         <v>4575303.055244475</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28343,7 +28371,7 @@
         <v>5701982.927565813</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28805,7 +28833,7 @@
         <v>5672485.042565814</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28871,7 +28899,7 @@
         <v>5668060.294565814</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -34657,6 +34685,6 @@
       <c r="M1035" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-23 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>-719959.1066807181</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-491843.4125807182</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-490168.2315807181</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-487668.2025807181</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-491530.4215807181</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-489612.0115807182</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -5804,14 +5804,10 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5841,17 +5837,15 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.851</v>
+      </c>
       <c r="J164" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.851</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>3.851</v>
       </c>
       <c r="J165" t="n">
-        <v>3.853</v>
+        <v>3.851</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5929,7 +5923,11 @@
       <c r="J166" t="n">
         <v>3.851</v>
       </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5964,7 @@
       <c r="J167" t="n">
         <v>3.851</v>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +6034,19 @@
         <v>-388219.385280718</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -10825,10 +10827,14 @@
         <v>-1778707.458075808</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3.85</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10858,11 +10864,19 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J315" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10891,11 +10905,19 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J316" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10924,10 +10946,14 @@
         <v>-1771795.419075808</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J317" t="n">
+        <v>3.851</v>
+      </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
@@ -10957,11 +10983,19 @@
         <v>-1776867.353075808</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +11024,19 @@
         <v>-1771020.433075808</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11023,10 +11065,14 @@
         <v>-1770540.504075808</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J320" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
@@ -11056,11 +11102,19 @@
         <v>-1769466.007075808</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J321" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11092,8 +11146,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11518,14 +11578,10 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J335" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
@@ -11555,19 +11611,11 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J336" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11596,19 +11644,11 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J337" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11637,14 +11677,10 @@
         <v>-4764890.959675809</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J338" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
@@ -11674,19 +11710,11 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J339" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11715,19 +11743,11 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J340" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11756,14 +11776,10 @@
         <v>-4760101.42667581</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J341" t="n">
-        <v>3.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
@@ -11796,14 +11812,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11835,14 +11845,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -22134,7 +22138,7 @@
         <v>5624831.48157335</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22167,7 +22171,7 @@
         <v>5519330.89057335</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22200,7 +22204,7 @@
         <v>5519330.89057335</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23916,7 +23920,7 @@
         <v>5423123.118758363</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23949,7 +23953,7 @@
         <v>5418032.743758363</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23982,7 +23986,7 @@
         <v>5259411.687258363</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24015,7 +24019,7 @@
         <v>5431156.736258362</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24048,7 +24052,7 @@
         <v>5219668.939258362</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24081,7 +24085,7 @@
         <v>5476650.168258362</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24114,7 +24118,7 @@
         <v>5496240.452558363</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24147,7 +24151,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24180,7 +24184,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24213,7 +24217,7 @@
         <v>5167151.701558363</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24246,7 +24250,7 @@
         <v>4910122.660558362</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24972,7 +24976,7 @@
         <v>4719813.082073351</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25005,7 +25009,7 @@
         <v>4460292.340073352</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25038,7 +25042,7 @@
         <v>4200663.570073352</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25071,7 +25075,7 @@
         <v>4200663.570073352</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25104,7 +25108,7 @@
         <v>4458807.899073352</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25137,7 +25141,7 @@
         <v>4716885.713073352</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25170,7 +25174,7 @@
         <v>4459216.211073352</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25203,7 +25207,7 @@
         <v>4716896.623073353</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25236,7 +25240,7 @@
         <v>4974587.939073352</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25269,7 +25273,7 @@
         <v>4975225.289073352</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25302,7 +25306,7 @@
         <v>5269318.983361631</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25335,7 +25339,7 @@
         <v>5012696.807361631</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25929,7 +25933,7 @@
         <v>4777902.742892032</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25962,7 +25966,7 @@
         <v>4437530.410892032</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25995,7 +25999,7 @@
         <v>4696039.951892032</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26028,7 +26032,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26061,7 +26065,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26094,7 +26098,7 @@
         <v>4677928.703492032</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26127,7 +26131,7 @@
         <v>4684356.772492032</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26160,7 +26164,7 @@
         <v>4617696.895492032</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26193,7 +26197,7 @@
         <v>4672057.500492033</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26226,7 +26230,7 @@
         <v>4715006.507944475</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26259,7 +26263,7 @@
         <v>4715006.507944475</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -34685,6 +34689,6 @@
       <c r="M1035" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-23 BackTest TMTG.xlsx
@@ -1078,7 +1078,7 @@
         <v>-719959.1066807181</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-491843.4125807182</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-490168.2315807181</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-487668.2025807181</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-491530.4215807181</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-489612.0115807182</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -5566,14 +5566,10 @@
         <v>-542693.5242807179</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5603,19 +5599,11 @@
         <v>-630936.937280718</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5644,19 +5632,11 @@
         <v>-519105.014280718</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,14 +5665,10 @@
         <v>-398501.341280718</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5722,19 +5698,11 @@
         <v>-393414.497280718</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5763,19 +5731,11 @@
         <v>-405976.312280718</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5837,14 +5797,10 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5874,19 +5830,11 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5915,19 +5863,11 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5956,14 +5896,10 @@
         <v>-397461.130280718</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5993,19 +5929,11 @@
         <v>-395131.335280718</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6034,19 +5962,11 @@
         <v>-388219.385280718</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.854</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +10747,10 @@
         <v>-1778707.458075808</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J314" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10864,19 +10780,11 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J315" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10905,19 +10813,11 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J316" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10946,14 +10846,10 @@
         <v>-1771795.419075808</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J317" t="n">
-        <v>3.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
@@ -10983,19 +10879,11 @@
         <v>-1776867.353075808</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J318" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11024,19 +10912,11 @@
         <v>-1771020.433075808</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="J319" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11065,14 +10945,10 @@
         <v>-1770540.504075808</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="J320" t="n">
-        <v>3.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
@@ -11102,19 +10978,11 @@
         <v>-1769466.007075808</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="J321" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11146,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11644,10 +11506,14 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3.85</v>
+      </c>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
@@ -11677,11 +11543,19 @@
         <v>-4764890.959675809</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J338" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11710,11 +11584,19 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="J339" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11743,10 +11625,14 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
@@ -11776,11 +11662,19 @@
         <v>-4760101.42667581</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +11703,19 @@
         <v>-4759121.57467581</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J342" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11842,10 +11744,14 @@
         <v>-4760916.714675809</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J343" t="n">
+        <v>3.854</v>
+      </c>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
@@ -11875,11 +11781,19 @@
         <v>-4758704.651675809</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J344" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +11822,19 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J345" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11974,10 +11896,14 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J347" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
@@ -12010,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12040,11 +11972,19 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J349" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12073,10 +12013,14 @@
         <v>-4757960.418675809</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="J350" t="n">
+        <v>3.852</v>
+      </c>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
@@ -12106,11 +12050,19 @@
         <v>-4750787.839675809</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>3.853</v>
+      </c>
+      <c r="J351" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12139,11 +12091,19 @@
         <v>-4749639.519262373</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="J352" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12568,10 +12528,14 @@
         <v>-4810229.07935126</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="J365" t="n">
+        <v>3.869</v>
+      </c>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
@@ -12604,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +12604,19 @@
         <v>-4815617.09535126</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J367" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12667,10 +12645,14 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J368" t="n">
+        <v>3.858</v>
+      </c>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
@@ -12703,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12736,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12766,10 +12760,14 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J371" t="n">
+        <v>3.859</v>
+      </c>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
@@ -12799,11 +12797,19 @@
         <v>-4815530.31035126</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J372" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +12838,19 @@
         <v>-4683818.05355126</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J373" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12865,11 +12879,19 @@
         <v>-4682669.31355126</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J374" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +12920,19 @@
         <v>-4684193.60155126</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="J375" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12931,11 +12961,19 @@
         <v>-4683980.06255126</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="J376" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12964,11 +13002,19 @@
         <v>-4684960.65855126</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J377" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13000,8 +13046,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13033,8 +13085,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13066,8 +13124,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13099,8 +13163,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13132,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13165,8 +13241,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13198,8 +13280,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13231,8 +13319,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13264,8 +13358,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13297,8 +13397,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13330,8 +13436,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13363,8 +13475,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13396,8 +13514,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13429,8 +13553,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13462,8 +13592,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13495,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13528,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13561,8 +13709,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13594,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13627,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13660,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13693,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13726,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13759,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13792,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13825,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13858,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13891,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13924,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13957,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13990,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14023,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14056,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14089,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14122,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14155,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14188,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14221,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14254,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14287,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14320,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14353,8 +14645,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14386,8 +14684,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14419,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14452,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14485,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14518,8 +14840,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14551,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14584,8 +14918,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14617,8 +14957,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14650,8 +14996,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14683,8 +15035,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14716,8 +15074,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14749,8 +15113,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14782,8 +15152,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14815,8 +15191,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14848,8 +15230,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14881,8 +15269,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14914,8 +15308,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14947,8 +15347,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14980,8 +15386,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15013,8 +15425,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15046,8 +15464,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15079,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15112,8 +15542,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15145,8 +15581,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15178,8 +15620,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15211,8 +15659,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15244,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15277,8 +15737,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15310,8 +15776,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15343,8 +15815,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15376,8 +15854,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15409,8 +15893,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15442,8 +15932,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15475,8 +15971,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15508,8 +16010,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15541,8 +16049,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15574,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15607,8 +16127,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15640,8 +16166,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15673,8 +16205,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15706,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15739,8 +16283,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15772,8 +16322,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15805,8 +16361,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15838,8 +16400,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15871,8 +16439,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15904,8 +16478,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15937,8 +16517,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15970,8 +16556,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16003,8 +16595,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16036,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16069,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16102,8 +16712,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16135,8 +16751,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16168,8 +16790,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16201,8 +16829,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16234,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16267,8 +16907,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16300,8 +16946,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16333,8 +16985,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16366,8 +17024,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16399,8 +17063,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16432,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16465,8 +17141,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16498,8 +17180,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16531,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16564,8 +17258,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16597,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16630,8 +17336,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16663,8 +17375,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16696,8 +17414,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16729,8 +17453,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16762,8 +17492,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16795,8 +17531,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16828,8 +17570,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16861,8 +17609,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16894,8 +17648,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16927,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16960,8 +17726,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16993,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17026,8 +17804,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17059,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17092,8 +17882,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17125,8 +17921,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17158,8 +17960,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17191,8 +17999,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17224,8 +18038,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17257,8 +18077,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17290,8 +18116,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17323,8 +18155,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17356,8 +18194,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17389,8 +18233,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17422,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +18311,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17488,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17521,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17554,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17587,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17620,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17653,8 +18545,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17686,8 +18584,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17719,8 +18623,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17752,8 +18662,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17785,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17818,8 +18740,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17851,8 +18779,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17884,8 +18818,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17917,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17950,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17983,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18016,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18049,8 +19013,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18082,8 +19052,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18115,8 +19091,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18148,8 +19130,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18181,8 +19169,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18214,8 +19208,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18247,8 +19247,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18280,8 +19286,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18313,8 +19325,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18346,8 +19364,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18379,8 +19403,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18412,8 +19442,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18445,8 +19481,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18478,8 +19520,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18511,8 +19559,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18544,8 +19598,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18577,8 +19637,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18610,8 +19676,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18643,8 +19715,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18676,8 +19754,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18709,8 +19793,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18742,8 +19832,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18775,8 +19871,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18808,8 +19910,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18841,8 +19949,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18874,8 +19988,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18907,8 +20027,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18940,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18973,8 +20105,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19006,8 +20144,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19039,8 +20183,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19072,8 +20222,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19105,8 +20261,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19138,8 +20300,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19171,8 +20339,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19204,8 +20378,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19237,8 +20417,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19270,8 +20456,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19300,13 +20492,19 @@
         <v>4864179.18135679</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L569" t="n">
-        <v>1</v>
+        <v>1.00199663125162</v>
       </c>
       <c r="M569" t="inlineStr"/>
     </row>
@@ -19333,7 +20531,7 @@
         <v>4177871.060656791</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19366,7 +20564,7 @@
         <v>3291642.986656791</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19828,7 +21026,7 @@
         <v>5114184.143656791</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19894,7 +21092,7 @@
         <v>3968949.001856791</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20026,7 +21224,7 @@
         <v>5248875.544856791</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20125,7 +21323,7 @@
         <v>4846696.549856791</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20158,7 +21356,7 @@
         <v>4434655.273856792</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20554,7 +21752,7 @@
         <v>3913393.137065071</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20950,7 +22148,7 @@
         <v>5215075.234873352</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21148,7 +22346,7 @@
         <v>5201403.178873352</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21214,7 +22412,7 @@
         <v>5211558.130873351</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21280,7 +22478,7 @@
         <v>5363882.302873351</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21544,7 +22742,7 @@
         <v>6206778.64577335</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21577,7 +22775,7 @@
         <v>6051608.63477335</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21610,7 +22808,7 @@
         <v>6051608.63477335</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21643,7 +22841,7 @@
         <v>6044297.67977335</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21676,7 +22874,7 @@
         <v>6022184.00777335</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21742,7 +22940,7 @@
         <v>6101364.015773349</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23458,7 +24656,7 @@
         <v>5917652.548674174</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23491,7 +24689,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23524,7 +24722,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23557,7 +24755,7 @@
         <v>5655152.874674174</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23590,7 +24788,7 @@
         <v>5464857.311674174</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23689,7 +24887,7 @@
         <v>5469608.393674173</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23722,7 +24920,7 @@
         <v>5606565.570758362</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23755,7 +24953,7 @@
         <v>5228907.930758363</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23788,7 +24986,7 @@
         <v>5403918.699758363</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23821,7 +25019,7 @@
         <v>5166537.926758363</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24085,7 +25283,7 @@
         <v>5476650.168258362</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24217,7 +25415,7 @@
         <v>5167151.701558363</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24250,7 +25448,7 @@
         <v>4910122.660558362</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24283,7 +25481,7 @@
         <v>4883634.930558362</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24349,7 +25547,7 @@
         <v>5779690.916073352</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24382,7 +25580,7 @@
         <v>6091824.510073352</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24415,7 +25613,7 @@
         <v>5835385.311073352</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24448,7 +25646,7 @@
         <v>5749818.491073351</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24481,7 +25679,7 @@
         <v>5492844.436073352</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24514,7 +25712,7 @@
         <v>5749558.171073352</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24547,7 +25745,7 @@
         <v>6006437.021073352</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24580,7 +25778,7 @@
         <v>6263121.650073351</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24613,7 +25811,7 @@
         <v>6145633.595073352</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24646,7 +25844,7 @@
         <v>6321796.655073351</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24679,7 +25877,7 @@
         <v>6064661.132073351</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24712,7 +25910,7 @@
         <v>6322141.244073351</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24745,7 +25943,7 @@
         <v>6064334.362073351</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24778,7 +25976,7 @@
         <v>6300023.96307335</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24811,7 +26009,7 @@
         <v>5783489.94507335</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24844,7 +26042,7 @@
         <v>5524944.584073351</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24877,7 +26075,7 @@
         <v>5266189.120073351</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25339,7 +26537,7 @@
         <v>5012696.807361631</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25372,7 +26570,7 @@
         <v>5269304.45336163</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25405,7 +26603,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25438,7 +26636,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25471,7 +26669,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25504,7 +26702,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25537,7 +26735,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25570,7 +26768,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25603,7 +26801,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25636,7 +26834,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25669,7 +26867,7 @@
         <v>5284514.37866581</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25702,7 +26900,7 @@
         <v>5027452.232665811</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25735,7 +26933,7 @@
         <v>5284525.402665811</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25768,7 +26966,7 @@
         <v>4771864.643665811</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25801,7 +26999,7 @@
         <v>4771864.643665811</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26428,7 +27626,7 @@
         <v>4693820.400944475</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
